--- a/FinalResults/BubbleSort.xlsx
+++ b/FinalResults/BubbleSort.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\Results\BubbleSort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F96320-C403-47BD-8D86-686452EC6029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674005B0-5880-4053-B16A-4B43A087A766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>AssemblyScript</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Rust</t>
+  </si>
+  <si>
+    <t>Iteration</t>
   </si>
 </sst>
 </file>
@@ -354,448 +357,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.7109375" customWidth="1"/>
+    <col min="2" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>67.172961888000003</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>7.6466814029999997</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7.1699783899999998</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8.9816145459999994</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>74.125737392000005</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>7.3050592439999997</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7.2949948859999996</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8.4447822079999995</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>78.954942704999993</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>7.399952012</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7.6359160770000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>8.6874193510000008</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>74.995639629999999</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>7.5027797270000001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>7.642788962</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>9.0559142549999994</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>75.457392268999996</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>7.4241972069999997</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7.690852274</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>8.5571466209999993</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>75.538823945999994</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>7.2910769679999996</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7.6772065290000002</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8.9154664579999992</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>75.928387099999995</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>7.3767986519999997</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7.774210922</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>8.7604192080000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>79.991745731999998</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>7.261440983</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>7.7544559240000002</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>9.1761075259999991</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>72.391658477999997</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>7.3982128549999997</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>7.691673121</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>10.385767829000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>74.544767246999996</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>7.449595983</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>7.9064510659999998</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>10.439908667999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>84.965506275999999</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>7.4663016969999996</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>8.7521719670000007</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>10.435755896</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>72.096996777000001</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>7.2748517880000003</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>8.8403964169999991</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>10.311400983</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>74.689357995999998</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>7.4902669199999998</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>8.797971274</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>9.7312129719999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>75.776170199000006</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>7.8374153680000003</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>8.7455794069999993</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>9.0994202879999992</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>76.453954768000003</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>8.5075319230000002</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8.6167066309999996</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>8.9819839160000008</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>76.285514032999998</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>8.680193375</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>7.7263965480000003</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>8.9547912549999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>75.297442144000001</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>8.7672900550000001</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>7.6733989510000002</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>9.1137823509999993</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>74.505292295999993</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>8.0401496659999996</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>7.9856479150000004</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>9.0301161370000003</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>74.506205997999999</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>7.6073385790000003</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>7.6501990690000001</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>9.5605698100000005</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>74.713392025000005</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>7.707724142</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>7.7381024219999999</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>10.557433287</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>76.052265004000006</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>7.7391633950000003</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>8.2357103550000001</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>10.432786959</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>76.559624975999995</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>7.8166022589999997</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>9.2217888759999997</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>10.275340536</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>73.728255602999994</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>7.655784572</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>9.0775401290000008</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>10.343685001000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>74.156215158999998</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>7.6734900120000002</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>9.2616270459999992</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>9.9353683670000006</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>74.940694793999995</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>8.2474686679999998</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>8.7999409849999992</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>8.9174819369999998</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>76.429764449999993</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>8.1956010179999996</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>8.1689247129999991</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>9.0070458379999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>76.651966161999994</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>8.0110389929999997</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>7.6058172300000004</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>9.0070560299999993</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>79.326541738000003</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>7.7687813280000002</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>7.6188342310000001</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>9.0220529589999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>74.504509706999997</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>7.6748574620000003</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>7.7412885390000001</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>9.1877350179999997</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>74.082478184999999</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>7.6407802150000004</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>7.7396195040000002</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>9.7438818670000007</v>
       </c>
     </row>

--- a/FinalResults/BubbleSort.xlsx
+++ b/FinalResults/BubbleSort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674005B0-5880-4053-B16A-4B43A087A766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF8ACA-AD6F-467A-8126-DDFB4348C4E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,510 +389,1685 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>67.172961888000003</v>
-      </c>
       <c r="C2">
-        <v>7.6466814029999997</v>
+        <v>7.1909005080000004</v>
       </c>
       <c r="D2">
-        <v>7.1699783899999998</v>
+        <v>7.1749272709999996</v>
       </c>
       <c r="E2">
-        <v>8.9816145459999994</v>
+        <v>8.8601838500000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>74.125737392000005</v>
-      </c>
       <c r="C3">
-        <v>7.3050592439999997</v>
+        <v>7.1279129010000002</v>
       </c>
       <c r="D3">
-        <v>7.2949948859999996</v>
+        <v>7.3079730979999997</v>
       </c>
       <c r="E3">
-        <v>8.4447822079999995</v>
+        <v>8.4655132850000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>78.954942704999993</v>
-      </c>
       <c r="C4">
-        <v>7.399952012</v>
+        <v>7.3690844799999997</v>
       </c>
       <c r="D4">
-        <v>7.6359160770000001</v>
+        <v>7.3259098570000001</v>
       </c>
       <c r="E4">
-        <v>8.6874193510000008</v>
+        <v>8.5316044160000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>74.995639629999999</v>
-      </c>
       <c r="C5">
-        <v>7.5027797270000001</v>
+        <v>7.4957425029999998</v>
       </c>
       <c r="D5">
-        <v>7.642788962</v>
+        <v>7.3902545059999998</v>
       </c>
       <c r="E5">
-        <v>9.0559142549999994</v>
+        <v>8.6320261079999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>75.457392268999996</v>
-      </c>
       <c r="C6">
-        <v>7.4241972069999997</v>
+        <v>7.414520016</v>
       </c>
       <c r="D6">
-        <v>7.690852274</v>
+        <v>7.4061051769999997</v>
       </c>
       <c r="E6">
-        <v>8.5571466209999993</v>
+        <v>8.6687214499999996</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>75.538823945999994</v>
-      </c>
       <c r="C7">
-        <v>7.2910769679999996</v>
+        <v>7.5265304740000003</v>
       </c>
       <c r="D7">
-        <v>7.6772065290000002</v>
+        <v>7.4439899519999999</v>
       </c>
       <c r="E7">
-        <v>8.9154664579999992</v>
+        <v>8.7316328040000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>75.928387099999995</v>
-      </c>
       <c r="C8">
-        <v>7.3767986519999997</v>
+        <v>7.5073287430000004</v>
       </c>
       <c r="D8">
-        <v>7.774210922</v>
+        <v>7.2683730610000001</v>
       </c>
       <c r="E8">
-        <v>8.7604192080000001</v>
+        <v>8.7290079659999993</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>79.991745731999998</v>
-      </c>
       <c r="C9">
-        <v>7.261440983</v>
+        <v>7.5105732940000003</v>
       </c>
       <c r="D9">
-        <v>7.7544559240000002</v>
+        <v>7.526922184</v>
       </c>
       <c r="E9">
-        <v>9.1761075259999991</v>
+        <v>8.8079453080000008</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>72.391658477999997</v>
-      </c>
       <c r="C10">
-        <v>7.3982128549999997</v>
+        <v>7.5212877589999998</v>
       </c>
       <c r="D10">
-        <v>7.691673121</v>
+        <v>7.5168064919999997</v>
       </c>
       <c r="E10">
-        <v>10.385767829000001</v>
+        <v>8.7723854019999994</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>74.544767246999996</v>
-      </c>
       <c r="C11">
-        <v>7.449595983</v>
+        <v>7.350267509</v>
       </c>
       <c r="D11">
-        <v>7.9064510659999998</v>
+        <v>7.5355718920000001</v>
       </c>
       <c r="E11">
-        <v>10.439908667999999</v>
+        <v>8.8447075399999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>84.965506275999999</v>
-      </c>
       <c r="C12">
-        <v>7.4663016969999996</v>
+        <v>7.5516944779999999</v>
       </c>
       <c r="D12">
-        <v>8.7521719670000007</v>
+        <v>7.5548319810000004</v>
       </c>
       <c r="E12">
-        <v>10.435755896</v>
+        <v>9.7708597620000006</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>72.096996777000001</v>
-      </c>
       <c r="C13">
-        <v>7.2748517880000003</v>
+        <v>7.5579186739999997</v>
       </c>
       <c r="D13">
-        <v>8.8403964169999991</v>
+        <v>8.1133220010000002</v>
       </c>
       <c r="E13">
-        <v>10.311400983</v>
+        <v>10.321253424</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>74.689357995999998</v>
-      </c>
       <c r="C14">
-        <v>7.4902669199999998</v>
+        <v>7.4739010969999997</v>
       </c>
       <c r="D14">
-        <v>8.797971274</v>
+        <v>8.7039724580000009</v>
       </c>
       <c r="E14">
-        <v>9.7312129719999998</v>
+        <v>9.6083752429999993</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>75.776170199000006</v>
-      </c>
       <c r="C15">
-        <v>7.8374153680000003</v>
+        <v>7.9405156960000003</v>
       </c>
       <c r="D15">
-        <v>8.7455794069999993</v>
+        <v>8.6717008209999999</v>
       </c>
       <c r="E15">
-        <v>9.0994202879999992</v>
+        <v>8.9797177779999995</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>76.453954768000003</v>
-      </c>
       <c r="C16">
-        <v>8.5075319230000002</v>
+        <v>8.580158891</v>
       </c>
       <c r="D16">
-        <v>8.6167066309999996</v>
+        <v>8.4848537929999992</v>
       </c>
       <c r="E16">
-        <v>8.9819839160000008</v>
+        <v>8.9285591130000004</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>76.285514032999998</v>
-      </c>
       <c r="C17">
-        <v>8.680193375</v>
+        <v>8.6390662799999998</v>
       </c>
       <c r="D17">
-        <v>7.7263965480000003</v>
+        <v>7.8056419440000004</v>
       </c>
       <c r="E17">
-        <v>8.9547912549999999</v>
+        <v>9.1080053910000007</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>75.297442144000001</v>
-      </c>
       <c r="C18">
-        <v>8.7672900550000001</v>
+        <v>8.2573673500000009</v>
       </c>
       <c r="D18">
-        <v>7.6733989510000002</v>
+        <v>7.6296028920000003</v>
       </c>
       <c r="E18">
-        <v>9.1137823509999993</v>
+        <v>9.5322127800000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>74.505292295999993</v>
-      </c>
       <c r="C19">
-        <v>8.0401496659999996</v>
+        <v>7.6623824919999999</v>
       </c>
       <c r="D19">
-        <v>7.9856479150000004</v>
+        <v>7.590470603</v>
       </c>
       <c r="E19">
-        <v>9.0301161370000003</v>
+        <v>9.2084957979999995</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>74.506205997999999</v>
-      </c>
       <c r="C20">
-        <v>7.6073385790000003</v>
+        <v>7.9048017560000003</v>
       </c>
       <c r="D20">
-        <v>7.6501990690000001</v>
+        <v>7.6406373910000003</v>
       </c>
       <c r="E20">
-        <v>9.5605698100000005</v>
+        <v>9.1820912359999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>74.713392025000005</v>
-      </c>
       <c r="C21">
-        <v>7.707724142</v>
+        <v>7.6196664009999999</v>
       </c>
       <c r="D21">
-        <v>7.7381024219999999</v>
+        <v>7.8074476429999997</v>
       </c>
       <c r="E21">
-        <v>10.557433287</v>
+        <v>9.2593227549999995</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>76.052265004000006</v>
-      </c>
       <c r="C22">
-        <v>7.7391633950000003</v>
+        <v>7.6715657720000001</v>
       </c>
       <c r="D22">
-        <v>8.2357103550000001</v>
+        <v>8.1910362859999992</v>
       </c>
       <c r="E22">
-        <v>10.432786959</v>
+        <v>9.5328964050000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>76.559624975999995</v>
-      </c>
       <c r="C23">
-        <v>7.8166022589999997</v>
+        <v>7.7007390879999997</v>
       </c>
       <c r="D23">
-        <v>9.2217888759999997</v>
+        <v>8.6204690710000005</v>
       </c>
       <c r="E23">
-        <v>10.275340536</v>
+        <v>10.073034607</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>73.728255602999994</v>
-      </c>
       <c r="C24">
-        <v>7.655784572</v>
+        <v>7.6390773850000002</v>
       </c>
       <c r="D24">
-        <v>9.0775401290000008</v>
+        <v>8.5247433800000003</v>
       </c>
       <c r="E24">
-        <v>10.343685001000001</v>
+        <v>10.245609828999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>74.156215158999998</v>
-      </c>
       <c r="C25">
-        <v>7.6734900120000002</v>
+        <v>7.9732230529999999</v>
       </c>
       <c r="D25">
-        <v>9.2616270459999992</v>
+        <v>8.1925686849999995</v>
       </c>
       <c r="E25">
-        <v>9.9353683670000006</v>
+        <v>9.8774522910000009</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>74.940694793999995</v>
-      </c>
       <c r="C26">
-        <v>8.2474686679999998</v>
+        <v>7.8182894899999997</v>
       </c>
       <c r="D26">
-        <v>8.7999409849999992</v>
+        <v>7.8191506659999996</v>
       </c>
       <c r="E26">
-        <v>8.9174819369999998</v>
+        <v>9.0211469619999995</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>76.429764449999993</v>
-      </c>
       <c r="C27">
-        <v>8.1956010179999996</v>
+        <v>7.8160596990000002</v>
       </c>
       <c r="D27">
-        <v>8.1689247129999991</v>
+        <v>7.5660582459999999</v>
       </c>
       <c r="E27">
-        <v>9.0070458379999998</v>
+        <v>8.8968127569999993</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>76.651966161999994</v>
-      </c>
       <c r="C28">
-        <v>8.0110389929999997</v>
+        <v>7.919296535</v>
       </c>
       <c r="D28">
-        <v>7.6058172300000004</v>
+        <v>7.6593746920000001</v>
       </c>
       <c r="E28">
-        <v>9.0070560299999993</v>
+        <v>9.0020133579999992</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>79.326541738000003</v>
-      </c>
       <c r="C29">
-        <v>7.7687813280000002</v>
+        <v>8.389091337</v>
       </c>
       <c r="D29">
-        <v>7.6188342310000001</v>
+        <v>7.6071562879999997</v>
       </c>
       <c r="E29">
-        <v>9.0220529589999998</v>
+        <v>8.9509174579999993</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>74.504509706999997</v>
-      </c>
       <c r="C30">
-        <v>7.6748574620000003</v>
+        <v>8.5541578850000004</v>
       </c>
       <c r="D30">
-        <v>7.7412885390000001</v>
+        <v>7.6583027389999998</v>
       </c>
       <c r="E30">
-        <v>9.1877350179999997</v>
+        <v>8.9792196319999995</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>74.082478184999999</v>
-      </c>
       <c r="C31">
-        <v>7.6407802150000004</v>
+        <v>7.9677859299999998</v>
       </c>
       <c r="D31">
-        <v>7.7396195040000002</v>
+        <v>7.7026868669999997</v>
       </c>
       <c r="E31">
-        <v>9.7438818670000007</v>
+        <v>9.3998442210000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>7.6250436849999996</v>
+      </c>
+      <c r="D32">
+        <v>8.3831304979999999</v>
+      </c>
+      <c r="E32">
+        <v>10.146451606999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>7.6059496610000004</v>
+      </c>
+      <c r="D33">
+        <v>8.8802422770000007</v>
+      </c>
+      <c r="E33">
+        <v>10.278545401000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>7.629051467</v>
+      </c>
+      <c r="D34">
+        <v>8.7972949380000003</v>
+      </c>
+      <c r="E34">
+        <v>10.291521689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>7.9797152709999999</v>
+      </c>
+      <c r="D35">
+        <v>8.7040336790000001</v>
+      </c>
+      <c r="E35">
+        <v>9.9050100780000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>8.1691900559999997</v>
+      </c>
+      <c r="D36">
+        <v>8.3494790269999992</v>
+      </c>
+      <c r="E36">
+        <v>8.9709224560000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>8.6177795160000006</v>
+      </c>
+      <c r="D37">
+        <v>7.9152044400000001</v>
+      </c>
+      <c r="E37">
+        <v>8.954530621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>8.6988949689999995</v>
+      </c>
+      <c r="D38">
+        <v>7.5857827850000001</v>
+      </c>
+      <c r="E38">
+        <v>8.897285793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>8.4278996989999992</v>
+      </c>
+      <c r="D39">
+        <v>7.5837112360000001</v>
+      </c>
+      <c r="E39">
+        <v>8.9310314690000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>7.8670292179999999</v>
+      </c>
+      <c r="D40">
+        <v>7.623990461</v>
+      </c>
+      <c r="E40">
+        <v>9.0334134430000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>7.5687317270000003</v>
+      </c>
+      <c r="D41">
+        <v>7.8389885250000004</v>
+      </c>
+      <c r="E41">
+        <v>9.1273692919999991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>7.5999179039999998</v>
+      </c>
+      <c r="D42">
+        <v>7.9595387930000001</v>
+      </c>
+      <c r="E42">
+        <v>9.9923578949999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>7.76530699</v>
+      </c>
+      <c r="D43">
+        <v>8.1433347610000002</v>
+      </c>
+      <c r="E43">
+        <v>10.328130068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>7.788615182</v>
+      </c>
+      <c r="D44">
+        <v>8.45019864</v>
+      </c>
+      <c r="E44">
+        <v>10.275004876000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>7.6713550369999997</v>
+      </c>
+      <c r="D45">
+        <v>8.7172839660000001</v>
+      </c>
+      <c r="E45">
+        <v>10.202565247000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>7.760022534</v>
+      </c>
+      <c r="D46">
+        <v>8.3450268960000002</v>
+      </c>
+      <c r="E46">
+        <v>9.6990724769999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>8.1123752109999998</v>
+      </c>
+      <c r="D47">
+        <v>7.9419146380000001</v>
+      </c>
+      <c r="E47">
+        <v>9.0025323640000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>8.7706520319999992</v>
+      </c>
+      <c r="D48">
+        <v>7.7119165890000003</v>
+      </c>
+      <c r="E48">
+        <v>8.9002843079999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>8.6410020809999999</v>
+      </c>
+      <c r="D49">
+        <v>7.6098952180000001</v>
+      </c>
+      <c r="E49">
+        <v>8.9482192650000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>8.7607496440000006</v>
+      </c>
+      <c r="D50">
+        <v>7.7475324859999999</v>
+      </c>
+      <c r="E50">
+        <v>9.0039281290000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>8.4208550530000004</v>
+      </c>
+      <c r="D51">
+        <v>7.7623730860000002</v>
+      </c>
+      <c r="E51">
+        <v>9.0292697529999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>7.68660429</v>
+      </c>
+      <c r="D52">
+        <v>7.8349090539999997</v>
+      </c>
+      <c r="E52">
+        <v>9.3818925039999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>7.588603762</v>
+      </c>
+      <c r="D53">
+        <v>8.0937092219999993</v>
+      </c>
+      <c r="E53">
+        <v>10.282289968000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>7.5883917070000004</v>
+      </c>
+      <c r="D54">
+        <v>8.3942335099999994</v>
+      </c>
+      <c r="E54">
+        <v>10.398367356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>7.6209652830000003</v>
+      </c>
+      <c r="D55">
+        <v>8.6694536660000008</v>
+      </c>
+      <c r="E55">
+        <v>10.090899856</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>7.6420075629999999</v>
+      </c>
+      <c r="D56">
+        <v>8.7586870930000007</v>
+      </c>
+      <c r="E56">
+        <v>9.8658559399999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>7.7244100680000001</v>
+      </c>
+      <c r="D57">
+        <v>8.540820665</v>
+      </c>
+      <c r="E57">
+        <v>9.341077383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>8.2238190370000002</v>
+      </c>
+      <c r="D58">
+        <v>7.7289502150000002</v>
+      </c>
+      <c r="E58">
+        <v>8.9048393959999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>8.7412935229999995</v>
+      </c>
+      <c r="D59">
+        <v>7.5527246149999998</v>
+      </c>
+      <c r="E59">
+        <v>8.9466415599999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>8.8924928829999992</v>
+      </c>
+      <c r="D60">
+        <v>7.7559739560000001</v>
+      </c>
+      <c r="E60">
+        <v>9.3083235389999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>8.8193461729999996</v>
+      </c>
+      <c r="D61">
+        <v>7.7742402940000002</v>
+      </c>
+      <c r="E61">
+        <v>9.2869655370000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>8.4172719239999996</v>
+      </c>
+      <c r="D62">
+        <v>7.831676088</v>
+      </c>
+      <c r="E62">
+        <v>9.8623414100000009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>7.9008731140000004</v>
+      </c>
+      <c r="D63">
+        <v>8.1987911110000002</v>
+      </c>
+      <c r="E63">
+        <v>10.496861471000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>7.7556571129999998</v>
+      </c>
+      <c r="D64">
+        <v>8.6822831320000002</v>
+      </c>
+      <c r="E64">
+        <v>10.450307606999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>7.8285243810000003</v>
+      </c>
+      <c r="D65">
+        <v>8.9003295359999992</v>
+      </c>
+      <c r="E65">
+        <v>10.425037407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>7.7963398440000002</v>
+      </c>
+      <c r="D66">
+        <v>8.8825882370000002</v>
+      </c>
+      <c r="E66">
+        <v>10.23233707</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>7.7950352340000002</v>
+      </c>
+      <c r="D67">
+        <v>8.8607507939999994</v>
+      </c>
+      <c r="E67">
+        <v>9.3092930939999992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>7.851341218</v>
+      </c>
+      <c r="D68">
+        <v>8.6000432629999999</v>
+      </c>
+      <c r="E68">
+        <v>9.0545320960000009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>8.2155351240000005</v>
+      </c>
+      <c r="D69">
+        <v>8.0563701170000002</v>
+      </c>
+      <c r="E69">
+        <v>9.0989618930000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>8.8913261479999992</v>
+      </c>
+      <c r="D70">
+        <v>7.7775226919999998</v>
+      </c>
+      <c r="E70">
+        <v>9.0983873299999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>8.9250041699999993</v>
+      </c>
+      <c r="D71">
+        <v>7.9299735709999997</v>
+      </c>
+      <c r="E71">
+        <v>9.2479255919999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>8.9977718249999992</v>
+      </c>
+      <c r="D72">
+        <v>7.8016998360000001</v>
+      </c>
+      <c r="E72">
+        <v>9.5453733419999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>8.425712699</v>
+      </c>
+      <c r="D73">
+        <v>7.7904983579999998</v>
+      </c>
+      <c r="E73">
+        <v>10.452994257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>7.7588313549999999</v>
+      </c>
+      <c r="D74">
+        <v>7.8527432719999997</v>
+      </c>
+      <c r="E74">
+        <v>10.555344648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>7.7641530080000001</v>
+      </c>
+      <c r="D75">
+        <v>8.4871935290000007</v>
+      </c>
+      <c r="E75">
+        <v>10.463973645999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>7.7643708059999996</v>
+      </c>
+      <c r="D76">
+        <v>8.8945988499999995</v>
+      </c>
+      <c r="E76">
+        <v>10.191062118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>7.849151354</v>
+      </c>
+      <c r="D77">
+        <v>9.0774695619999992</v>
+      </c>
+      <c r="E77">
+        <v>9.5049258230000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>8.1302744239999996</v>
+      </c>
+      <c r="D78">
+        <v>8.9593125909999998</v>
+      </c>
+      <c r="E78">
+        <v>9.0714014669999994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>8.2179237619999999</v>
+      </c>
+      <c r="D79">
+        <v>8.8150420819999997</v>
+      </c>
+      <c r="E79">
+        <v>9.0715808409999994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>8.3502768019999998</v>
+      </c>
+      <c r="D80">
+        <v>8.0820836440000008</v>
+      </c>
+      <c r="E80">
+        <v>9.2497718360000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>8.9074580310000009</v>
+      </c>
+      <c r="D81">
+        <v>7.7278262150000003</v>
+      </c>
+      <c r="E81">
+        <v>9.3579164430000006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>8.8626261199999998</v>
+      </c>
+      <c r="D82">
+        <v>7.7516353420000002</v>
+      </c>
+      <c r="E82">
+        <v>9.2641125280000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>8.4539232720000008</v>
+      </c>
+      <c r="D83">
+        <v>7.8238823399999999</v>
+      </c>
+      <c r="E83">
+        <v>10.933843920999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>7.7468953779999996</v>
+      </c>
+      <c r="D84">
+        <v>7.7612209999999999</v>
+      </c>
+      <c r="E84">
+        <v>10.47798993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>7.7419206630000001</v>
+      </c>
+      <c r="D85">
+        <v>8.0617865210000001</v>
+      </c>
+      <c r="E85">
+        <v>10.524707211000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>7.7872128939999996</v>
+      </c>
+      <c r="D86">
+        <v>8.4715671350000008</v>
+      </c>
+      <c r="E86">
+        <v>10.421252748000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>7.8740941539999998</v>
+      </c>
+      <c r="D87">
+        <v>8.7038136789999996</v>
+      </c>
+      <c r="E87">
+        <v>9.7103592330000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>8.0211616939999999</v>
+      </c>
+      <c r="D88">
+        <v>9.0530146919999996</v>
+      </c>
+      <c r="E88">
+        <v>9.0585392050000006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>8.3109186830000006</v>
+      </c>
+      <c r="D89">
+        <v>8.9927128340000007</v>
+      </c>
+      <c r="E89">
+        <v>9.0978714059999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>8.8911088090000003</v>
+      </c>
+      <c r="D90">
+        <v>9.0329790760000002</v>
+      </c>
+      <c r="E90">
+        <v>9.0894629459999994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>8.9279601970000009</v>
+      </c>
+      <c r="D91">
+        <v>8.6207657680000001</v>
+      </c>
+      <c r="E91">
+        <v>9.3550265770000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>8.8990902330000008</v>
+      </c>
+      <c r="D92">
+        <v>8.2106329710000008</v>
+      </c>
+      <c r="E92">
+        <v>10.298762501000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>8.5295579850000003</v>
+      </c>
+      <c r="D93">
+        <v>7.7336844329999996</v>
+      </c>
+      <c r="E93">
+        <v>10.454125786000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>7.9832422340000004</v>
+      </c>
+      <c r="D94">
+        <v>7.7420887279999997</v>
+      </c>
+      <c r="E94">
+        <v>10.445853758</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>8.0527378550000002</v>
+      </c>
+      <c r="D95">
+        <v>7.8074111110000004</v>
+      </c>
+      <c r="E95">
+        <v>10.359726330000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>8.2824283459999997</v>
+      </c>
+      <c r="D96">
+        <v>7.8469376070000001</v>
+      </c>
+      <c r="E96">
+        <v>9.5333016060000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>7.786182739</v>
+      </c>
+      <c r="D97">
+        <v>8.0840856589999994</v>
+      </c>
+      <c r="E97">
+        <v>9.1233119390000006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>7.7968463569999997</v>
+      </c>
+      <c r="D98">
+        <v>8.8376166939999994</v>
+      </c>
+      <c r="E98">
+        <v>9.0571208209999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>8.0403878950000003</v>
+      </c>
+      <c r="D99">
+        <v>9.0176880120000007</v>
+      </c>
+      <c r="E99">
+        <v>9.2606061830000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>8.3255725270000003</v>
+      </c>
+      <c r="D100">
+        <v>8.8161032450000008</v>
+      </c>
+      <c r="E100">
+        <v>9.3565810220000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>8.9016660010000006</v>
+      </c>
+      <c r="D101">
+        <v>8.7628808300000003</v>
+      </c>
+      <c r="E101">
+        <v>9.8170121340000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>9.0183019600000005</v>
+      </c>
+      <c r="D102">
+        <v>8.4085928449999994</v>
+      </c>
+      <c r="E102">
+        <v>10.405922951000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>8.8828528339999995</v>
+      </c>
+      <c r="D103">
+        <v>8.0223421810000008</v>
+      </c>
+      <c r="E103">
+        <v>10.581684054</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>8.5248606589999998</v>
+      </c>
+      <c r="D104">
+        <v>7.7242342280000003</v>
+      </c>
+      <c r="E104">
+        <v>10.339793607000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>7.8485034149999997</v>
+      </c>
+      <c r="D105">
+        <v>7.7563340299999997</v>
+      </c>
+      <c r="E105">
+        <v>10.073641671000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>7.7357384380000003</v>
+      </c>
+      <c r="D106">
+        <v>7.7713981920000004</v>
+      </c>
+      <c r="E106">
+        <v>9.1935062950000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>7.7418390830000003</v>
+      </c>
+      <c r="D107">
+        <v>7.9103774060000003</v>
+      </c>
+      <c r="E107">
+        <v>9.0221055929999991</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>7.8042597799999998</v>
+      </c>
+      <c r="D108">
+        <v>8.1382266019999996</v>
+      </c>
+      <c r="E108">
+        <v>9.0945427720000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>7.8644921669999999</v>
+      </c>
+      <c r="D109">
+        <v>8.7237448630000003</v>
+      </c>
+      <c r="E109">
+        <v>9.1892976740000005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>7.8257382570000003</v>
+      </c>
+      <c r="D110">
+        <v>8.9412258050000002</v>
+      </c>
+      <c r="E110">
+        <v>9.2369184799999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>8.1580939889999993</v>
+      </c>
+      <c r="D111">
+        <v>8.9420983189999994</v>
+      </c>
+      <c r="E111">
+        <v>9.8987732899999994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>8.6850213069999995</v>
+      </c>
+      <c r="D112">
+        <v>8.8162425869999996</v>
+      </c>
+      <c r="E112">
+        <v>10.48213075</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>9.3987885870000003</v>
+      </c>
+      <c r="D113">
+        <v>8.2222567719999997</v>
+      </c>
+      <c r="E113">
+        <v>10.443035761000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>9.029160632</v>
+      </c>
+      <c r="D114">
+        <v>8.042295116</v>
+      </c>
+      <c r="E114">
+        <v>10.519611913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>8.8186955230000006</v>
+      </c>
+      <c r="D115">
+        <v>7.7573783560000003</v>
+      </c>
+      <c r="E115">
+        <v>9.8164032330000008</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>8.3245239729999998</v>
+      </c>
+      <c r="D116">
+        <v>7.7873018160000003</v>
+      </c>
+      <c r="E116">
+        <v>9.0802276450000008</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>7.8823728419999997</v>
+      </c>
+      <c r="D117">
+        <v>7.8519483440000002</v>
+      </c>
+      <c r="E117">
+        <v>9.0341167860000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>7.7650959850000003</v>
+      </c>
+      <c r="D118">
+        <v>8.1375271500000004</v>
+      </c>
+      <c r="E118">
+        <v>9.0977476290000006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>7.8558439059999996</v>
+      </c>
+      <c r="D119">
+        <v>8.5458689240000005</v>
+      </c>
+      <c r="E119">
+        <v>9.2081954929999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>7.7812585690000002</v>
+      </c>
+      <c r="D120">
+        <v>8.8659592079999996</v>
+      </c>
+      <c r="E120">
+        <v>9.2215379389999992</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>7.8603653979999999</v>
+      </c>
+      <c r="D121">
+        <v>9.0437912709999999</v>
+      </c>
+      <c r="E121">
+        <v>10.041331525</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
